--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1122,7 +1122,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14493" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14493" uniqueCount="430">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1126,7 +1126,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}rac-1:Shall use either NMDP Race extension or us-core-race {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-race' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')}eth-1:Shall use either NMDP ethnicity extension or us-core-ethnicity {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-ethnicity' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1181,10 +1181,6 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -16627,13 +16623,13 @@
         <v>74</v>
       </c>
       <c r="AI135" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AJ135" t="s" s="2">
+      <c r="AK135" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>74</v>
@@ -19402,7 +19398,7 @@
         <v>256</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>74</v>
@@ -19427,10 +19423,10 @@
         <v>238</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -20086,13 +20082,13 @@
         <v>74</v>
       </c>
       <c r="J167" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K167" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K167" t="s" s="2">
+      <c r="L167" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20155,13 +20151,13 @@
         <v>74</v>
       </c>
       <c r="AI167" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AJ167" t="s" s="2">
+      <c r="AK167" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>74</v>
@@ -22930,7 +22926,7 @@
         <v>256</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s" s="2">
         <v>74</v>
@@ -22955,10 +22951,10 @@
         <v>238</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -23595,7 +23591,7 @@
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23614,16 +23610,16 @@
         <v>74</v>
       </c>
       <c r="J199" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K199" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K199" t="s" s="2">
+      <c r="L199" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
@@ -23685,13 +23681,13 @@
         <v>74</v>
       </c>
       <c r="AI199" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ199" t="s" s="2">
+      <c r="AK199" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK199" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>74</v>
@@ -26460,7 +26456,7 @@
         <v>256</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C225" t="s" s="2">
         <v>74</v>
@@ -26485,10 +26481,10 @@
         <v>238</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -27125,7 +27121,7 @@
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -27144,16 +27140,16 @@
         <v>74</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L231" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L231" t="s" s="2">
+      <c r="M231" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
@@ -27215,13 +27211,13 @@
         <v>74</v>
       </c>
       <c r="AI231" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ231" t="s" s="2">
+      <c r="AK231" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>74</v>
@@ -29990,7 +29986,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C257" t="s" s="2">
         <v>74</v>
@@ -30015,10 +30011,10 @@
         <v>238</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -30655,7 +30651,7 @@
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -30674,16 +30670,16 @@
         <v>74</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" t="s" s="2">
@@ -30745,13 +30741,13 @@
         <v>74</v>
       </c>
       <c r="AI263" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ263" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ263" t="s" s="2">
+      <c r="AK263" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK263" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL263" t="s" s="2">
         <v>74</v>
@@ -33520,7 +33516,7 @@
         <v>256</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C289" t="s" s="2">
         <v>74</v>
@@ -33545,10 +33541,10 @@
         <v>238</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -34185,7 +34181,7 @@
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -34204,16 +34200,16 @@
         <v>74</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="M295" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
@@ -34275,13 +34271,13 @@
         <v>74</v>
       </c>
       <c r="AI295" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ295" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ295" t="s" s="2">
+      <c r="AK295" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK295" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL295" t="s" s="2">
         <v>74</v>
@@ -37050,7 +37046,7 @@
         <v>256</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C321" t="s" s="2">
         <v>74</v>
@@ -37075,10 +37071,10 @@
         <v>238</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -37715,7 +37711,7 @@
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -37734,16 +37730,16 @@
         <v>74</v>
       </c>
       <c r="J327" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K327" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K327" t="s" s="2">
+      <c r="L327" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L327" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="M327" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
@@ -37805,13 +37801,13 @@
         <v>74</v>
       </c>
       <c r="AI327" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ327" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK327" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK327" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL327" t="s" s="2">
         <v>74</v>
@@ -40580,7 +40576,7 @@
         <v>256</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C353" t="s" s="2">
         <v>74</v>
@@ -40605,10 +40601,10 @@
         <v>238</v>
       </c>
       <c r="K353" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L353" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L353" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -41245,7 +41241,7 @@
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -41264,16 +41260,16 @@
         <v>74</v>
       </c>
       <c r="J359" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K359" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K359" t="s" s="2">
+      <c r="L359" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L359" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="M359" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
@@ -41335,13 +41331,13 @@
         <v>74</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ359" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK359" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK359" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL359" t="s" s="2">
         <v>74</v>
@@ -44110,7 +44106,7 @@
         <v>256</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C385" t="s" s="2">
         <v>74</v>
@@ -44135,10 +44131,10 @@
         <v>238</v>
       </c>
       <c r="K385" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L385" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L385" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
@@ -44794,13 +44790,13 @@
         <v>74</v>
       </c>
       <c r="J391" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K391" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K391" t="s" s="2">
+      <c r="L391" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L391" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
@@ -44863,13 +44859,13 @@
         <v>74</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL391" t="s" s="2">
         <v>74</v>
@@ -47635,7 +47631,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -47658,19 +47654,19 @@
         <v>83</v>
       </c>
       <c r="J417" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K417" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K417" t="s" s="2">
+      <c r="L417" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L417" t="s" s="2">
+      <c r="M417" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M417" t="s" s="2">
+      <c r="N417" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N417" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O417" t="s" s="2">
         <v>74</v>
@@ -47719,7 +47715,7 @@
         <v>74</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14910" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14910" uniqueCount="785">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1393,12 +1393,6 @@
     <t>msCoordinator</t>
   </si>
   <si>
-    <t>Search Coordinator for Patient needing transplant</t>
-  </si>
-  <si>
-    <t>The Search Coordinator for the MatchSync patient (required element).</t>
-  </si>
-  <si>
     <t>Bundle.entry:msCoordinator.id</t>
   </si>
   <si>
@@ -1415,22 +1409,6 @@
   </si>
   <si>
     <t>Bundle.entry:msCoordinator.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/transplantcentercoordinator}
-</t>
-  </si>
-  <si>
-    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
-  </si>
-  <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>PRD (as one example)</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>Bundle.entry:msCoordinator.search</t>
@@ -17369,10 +17347,10 @@
         <v>248</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>443</v>
+        <v>269</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17452,7 +17430,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>273</v>
@@ -17564,7 +17542,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>274</v>
@@ -17678,7 +17656,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>275</v>
@@ -17794,7 +17772,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>276</v>
@@ -17906,7 +17884,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>279</v>
@@ -18020,7 +17998,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>283</v>
@@ -18043,16 +18021,16 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>450</v>
+        <v>284</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>451</v>
+        <v>285</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>452</v>
+        <v>286</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18115,13 +18093,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>454</v>
+        <v>75</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18132,7 +18110,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>287</v>
@@ -18244,7 +18222,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>291</v>
@@ -18356,7 +18334,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>292</v>
@@ -18470,7 +18448,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>293</v>
@@ -18586,7 +18564,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>294</v>
@@ -18700,7 +18678,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>300</v>
@@ -18814,7 +18792,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>305</v>
@@ -18926,7 +18904,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>309</v>
@@ -19038,7 +19016,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>310</v>
@@ -19152,7 +19130,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>311</v>
@@ -19268,7 +19246,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>312</v>
@@ -19380,7 +19358,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>317</v>
@@ -19494,7 +19472,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>321</v>
@@ -19606,7 +19584,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>324</v>
@@ -19718,7 +19696,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>326</v>
@@ -19830,7 +19808,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>329</v>
@@ -19942,7 +19920,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>332</v>
@@ -20054,7 +20032,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>336</v>
@@ -20166,7 +20144,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>337</v>
@@ -20280,7 +20258,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>338</v>
@@ -20396,7 +20374,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>339</v>
@@ -20508,7 +20486,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>342</v>
@@ -20620,7 +20598,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>345</v>
@@ -20734,7 +20712,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>349</v>
@@ -20848,7 +20826,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>353</v>
@@ -20962,13 +20940,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -20993,10 +20971,10 @@
         <v>248</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21076,7 +21054,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>273</v>
@@ -21188,7 +21166,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>274</v>
@@ -21302,7 +21280,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>275</v>
@@ -21418,7 +21396,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>276</v>
@@ -21530,7 +21508,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>279</v>
@@ -21644,7 +21622,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>283</v>
@@ -21670,13 +21648,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21739,13 +21717,13 @@
         <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -21756,7 +21734,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>287</v>
@@ -21868,7 +21846,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>291</v>
@@ -21980,7 +21958,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>292</v>
@@ -22094,7 +22072,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>293</v>
@@ -22210,7 +22188,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>294</v>
@@ -22324,7 +22302,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>300</v>
@@ -22438,7 +22416,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>305</v>
@@ -22550,7 +22528,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>309</v>
@@ -22662,7 +22640,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>310</v>
@@ -22776,7 +22754,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>311</v>
@@ -22892,7 +22870,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>312</v>
@@ -23004,7 +22982,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>317</v>
@@ -23118,7 +23096,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>321</v>
@@ -23230,7 +23208,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>324</v>
@@ -23342,7 +23320,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>326</v>
@@ -23454,7 +23432,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>329</v>
@@ -23566,7 +23544,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>332</v>
@@ -23678,7 +23656,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>336</v>
@@ -23790,7 +23768,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>337</v>
@@ -23904,7 +23882,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>338</v>
@@ -24020,7 +23998,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>339</v>
@@ -24132,7 +24110,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>342</v>
@@ -24244,7 +24222,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>345</v>
@@ -24358,7 +24336,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>349</v>
@@ -24472,7 +24450,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>353</v>
@@ -24586,13 +24564,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -24617,10 +24595,10 @@
         <v>248</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -24700,7 +24678,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>273</v>
@@ -24812,7 +24790,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>274</v>
@@ -24926,7 +24904,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>275</v>
@@ -25042,7 +25020,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>276</v>
@@ -25154,7 +25132,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>279</v>
@@ -25268,14 +25246,14 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
@@ -25294,16 +25272,16 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -25365,13 +25343,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25382,7 +25360,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>287</v>
@@ -25494,7 +25472,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>291</v>
@@ -25606,7 +25584,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>292</v>
@@ -25720,7 +25698,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>293</v>
@@ -25836,7 +25814,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>294</v>
@@ -25950,7 +25928,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>300</v>
@@ -26064,7 +26042,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>305</v>
@@ -26176,7 +26154,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>309</v>
@@ -26288,7 +26266,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>310</v>
@@ -26402,7 +26380,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>311</v>
@@ -26518,7 +26496,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>312</v>
@@ -26630,7 +26608,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>317</v>
@@ -26744,7 +26722,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>321</v>
@@ -26856,7 +26834,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>324</v>
@@ -26968,7 +26946,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>326</v>
@@ -27080,7 +27058,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>329</v>
@@ -27192,7 +27170,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>332</v>
@@ -27304,7 +27282,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>336</v>
@@ -27416,7 +27394,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>337</v>
@@ -27530,7 +27508,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>338</v>
@@ -27646,7 +27624,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>339</v>
@@ -27758,7 +27736,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>342</v>
@@ -27870,7 +27848,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>345</v>
@@ -27984,7 +27962,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>349</v>
@@ -28098,7 +28076,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>353</v>
@@ -28212,13 +28190,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28243,10 +28221,10 @@
         <v>248</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28326,7 +28304,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>273</v>
@@ -28438,7 +28416,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>274</v>
@@ -28552,7 +28530,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>275</v>
@@ -28668,7 +28646,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>276</v>
@@ -28780,7 +28758,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>279</v>
@@ -28894,14 +28872,14 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
@@ -28920,16 +28898,16 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -28991,13 +28969,13 @@
         <v>75</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>75</v>
@@ -29008,7 +28986,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>287</v>
@@ -29120,7 +29098,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>291</v>
@@ -29232,7 +29210,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>292</v>
@@ -29346,7 +29324,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>293</v>
@@ -29462,7 +29440,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>294</v>
@@ -29576,7 +29554,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>300</v>
@@ -29690,7 +29668,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>305</v>
@@ -29802,7 +29780,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>309</v>
@@ -29914,7 +29892,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>310</v>
@@ -30028,7 +30006,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>311</v>
@@ -30144,7 +30122,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>312</v>
@@ -30256,7 +30234,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>317</v>
@@ -30370,7 +30348,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>321</v>
@@ -30482,7 +30460,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>324</v>
@@ -30594,7 +30572,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>326</v>
@@ -30706,7 +30684,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>329</v>
@@ -30818,7 +30796,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>332</v>
@@ -30930,7 +30908,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>336</v>
@@ -31042,7 +31020,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>337</v>
@@ -31156,7 +31134,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>338</v>
@@ -31272,7 +31250,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>339</v>
@@ -31384,7 +31362,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>342</v>
@@ -31496,7 +31474,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>345</v>
@@ -31610,7 +31588,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>349</v>
@@ -31724,7 +31702,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>353</v>
@@ -31838,13 +31816,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>75</v>
@@ -31869,10 +31847,10 @@
         <v>248</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -31952,7 +31930,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>273</v>
@@ -32064,7 +32042,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>274</v>
@@ -32178,7 +32156,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>275</v>
@@ -32294,7 +32272,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>276</v>
@@ -32406,7 +32384,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>279</v>
@@ -32520,14 +32498,14 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32546,16 +32524,16 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -32617,13 +32595,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -32634,7 +32612,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>287</v>
@@ -32746,7 +32724,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>291</v>
@@ -32858,7 +32836,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>292</v>
@@ -32972,7 +32950,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>293</v>
@@ -33088,7 +33066,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>294</v>
@@ -33202,7 +33180,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>300</v>
@@ -33316,7 +33294,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>305</v>
@@ -33428,7 +33406,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>309</v>
@@ -33540,7 +33518,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>310</v>
@@ -33654,7 +33632,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>311</v>
@@ -33770,7 +33748,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>312</v>
@@ -33882,7 +33860,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>317</v>
@@ -33996,7 +33974,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>321</v>
@@ -34108,7 +34086,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>324</v>
@@ -34220,7 +34198,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>326</v>
@@ -34332,7 +34310,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>329</v>
@@ -34444,7 +34422,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>332</v>
@@ -34556,7 +34534,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>336</v>
@@ -34668,7 +34646,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>337</v>
@@ -34782,7 +34760,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>338</v>
@@ -34898,7 +34876,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>339</v>
@@ -35010,7 +34988,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>342</v>
@@ -35122,7 +35100,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>345</v>
@@ -35236,7 +35214,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>349</v>
@@ -35350,7 +35328,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>353</v>
@@ -35464,13 +35442,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>75</v>
@@ -35495,10 +35473,10 @@
         <v>248</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -35578,7 +35556,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>273</v>
@@ -35690,7 +35668,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>274</v>
@@ -35804,7 +35782,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>275</v>
@@ -35920,7 +35898,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>276</v>
@@ -36032,7 +36010,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>279</v>
@@ -36146,14 +36124,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36172,16 +36150,16 @@
         <v>75</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36243,13 +36221,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -36260,7 +36238,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>287</v>
@@ -36372,7 +36350,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>291</v>
@@ -36484,7 +36462,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>292</v>
@@ -36598,7 +36576,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>293</v>
@@ -36714,7 +36692,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>294</v>
@@ -36828,7 +36806,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>300</v>
@@ -36942,7 +36920,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>305</v>
@@ -37054,7 +37032,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>309</v>
@@ -37166,7 +37144,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>310</v>
@@ -37280,7 +37258,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>311</v>
@@ -37396,7 +37374,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>312</v>
@@ -37508,7 +37486,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>317</v>
@@ -37622,7 +37600,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>321</v>
@@ -37734,7 +37712,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>324</v>
@@ -37846,7 +37824,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>326</v>
@@ -37958,7 +37936,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>329</v>
@@ -38070,7 +38048,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>332</v>
@@ -38182,7 +38160,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>336</v>
@@ -38294,7 +38272,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>337</v>
@@ -38408,7 +38386,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>338</v>
@@ -38524,7 +38502,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>339</v>
@@ -38636,7 +38614,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>342</v>
@@ -38748,7 +38726,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>345</v>
@@ -38862,7 +38840,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>349</v>
@@ -38976,7 +38954,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>353</v>
@@ -39090,13 +39068,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>75</v>
@@ -39121,10 +39099,10 @@
         <v>248</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -39204,7 +39182,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>273</v>
@@ -39316,7 +39294,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>274</v>
@@ -39430,7 +39408,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>275</v>
@@ -39546,7 +39524,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>276</v>
@@ -39658,7 +39636,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>279</v>
@@ -39772,14 +39750,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -39798,16 +39776,16 @@
         <v>75</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -39869,13 +39847,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -39886,7 +39864,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>287</v>
@@ -39998,7 +39976,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>291</v>
@@ -40110,7 +40088,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>292</v>
@@ -40224,7 +40202,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>293</v>
@@ -40340,7 +40318,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>294</v>
@@ -40454,7 +40432,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>300</v>
@@ -40568,7 +40546,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>305</v>
@@ -40680,7 +40658,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>309</v>
@@ -40792,7 +40770,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>310</v>
@@ -40906,7 +40884,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>311</v>
@@ -41022,7 +41000,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>312</v>
@@ -41134,7 +41112,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>317</v>
@@ -41248,7 +41226,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>321</v>
@@ -41360,7 +41338,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>324</v>
@@ -41472,7 +41450,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>326</v>
@@ -41584,7 +41562,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>329</v>
@@ -41696,7 +41674,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>332</v>
@@ -41808,7 +41786,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>336</v>
@@ -41920,7 +41898,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>337</v>
@@ -42034,7 +42012,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>338</v>
@@ -42150,7 +42128,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>339</v>
@@ -42262,7 +42240,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>342</v>
@@ -42374,7 +42352,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>345</v>
@@ -42488,7 +42466,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>349</v>
@@ -42602,7 +42580,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>353</v>
@@ -42716,13 +42694,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>75</v>
@@ -42747,10 +42725,10 @@
         <v>248</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -42830,7 +42808,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>273</v>
@@ -42942,7 +42920,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>274</v>
@@ -43056,7 +43034,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>275</v>
@@ -43172,7 +43150,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>276</v>
@@ -43284,7 +43262,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>279</v>
@@ -43398,14 +43376,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43424,16 +43402,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43495,13 +43473,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43512,7 +43490,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>287</v>
@@ -43624,7 +43602,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>291</v>
@@ -43736,7 +43714,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>292</v>
@@ -43850,7 +43828,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>293</v>
@@ -43966,7 +43944,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>294</v>
@@ -44080,7 +44058,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>300</v>
@@ -44194,7 +44172,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>305</v>
@@ -44306,7 +44284,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>309</v>
@@ -44418,7 +44396,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>310</v>
@@ -44532,7 +44510,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>311</v>
@@ -44648,7 +44626,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>312</v>
@@ -44760,7 +44738,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>317</v>
@@ -44874,7 +44852,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>321</v>
@@ -44986,7 +44964,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>324</v>
@@ -45098,7 +45076,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>326</v>
@@ -45210,7 +45188,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>329</v>
@@ -45322,7 +45300,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>332</v>
@@ -45434,7 +45412,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>336</v>
@@ -45546,7 +45524,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>337</v>
@@ -45660,7 +45638,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>338</v>
@@ -45776,7 +45754,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>339</v>
@@ -45888,7 +45866,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>342</v>
@@ -46000,7 +45978,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>345</v>
@@ -46114,7 +46092,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>349</v>
@@ -46228,7 +46206,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>353</v>
@@ -46342,13 +46320,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46373,10 +46351,10 @@
         <v>248</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -46456,7 +46434,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>273</v>
@@ -46568,7 +46546,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>274</v>
@@ -46682,7 +46660,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>275</v>
@@ -46798,7 +46776,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>276</v>
@@ -46910,7 +46888,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>279</v>
@@ -47024,7 +47002,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>283</v>
@@ -47050,13 +47028,13 @@
         <v>75</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
@@ -47125,7 +47103,7 @@
         <v>75</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47136,7 +47114,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>287</v>
@@ -47248,7 +47226,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>291</v>
@@ -47360,7 +47338,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>292</v>
@@ -47474,7 +47452,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>293</v>
@@ -47590,7 +47568,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>294</v>
@@ -47704,7 +47682,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>300</v>
@@ -47818,7 +47796,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>305</v>
@@ -47930,7 +47908,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>309</v>
@@ -48042,7 +48020,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>310</v>
@@ -48156,7 +48134,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>311</v>
@@ -48272,7 +48250,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>312</v>
@@ -48384,7 +48362,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>317</v>
@@ -48498,7 +48476,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>321</v>
@@ -48610,7 +48588,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>324</v>
@@ -48722,7 +48700,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>326</v>
@@ -48834,7 +48812,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>329</v>
@@ -48946,7 +48924,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>332</v>
@@ -49058,7 +49036,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>336</v>
@@ -49170,7 +49148,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>337</v>
@@ -49284,7 +49262,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>338</v>
@@ -49400,7 +49378,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>339</v>
@@ -49512,7 +49490,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>342</v>
@@ -49624,7 +49602,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>345</v>
@@ -49738,7 +49716,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>349</v>
@@ -49852,7 +49830,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>353</v>
@@ -49966,10 +49944,10 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" t="s" s="2">
@@ -49992,19 +49970,19 @@
         <v>85</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="O417" t="s" s="2">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="P417" t="s" s="2">
         <v>75</v>
@@ -50053,7 +50031,7 @@
         <v>75</v>
       </c>
       <c r="AF417" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="AG417" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$449</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14910" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16050" uniqueCount="830">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -851,7 +851,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -1387,103 +1387,240 @@
     <t>Bundle.entry:msDiagnosis.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:msCoordinator</t>
-  </si>
-  <si>
-    <t>msCoordinator</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.resource</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msCoordinator.response.outcome</t>
+    <t>Bundle.entry:msPractitionerRole</t>
+  </si>
+  <si>
+    <t>msPractitionerRole</t>
+  </si>
+  <si>
+    <t>Practitioner Role for the MacthSync patient needing transplant</t>
+  </si>
+  <si>
+    <t>Practitioner Role for the MatchSync patient.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PractitionerRole {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/nmdp-practitioner-role}
+</t>
+  </si>
+  <si>
+    <t>Roles/organizations the practitioner is associated with</t>
+  </si>
+  <si>
+    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
+  </si>
+  <si>
+    <t>PRD (as one example)</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitionerRole.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner</t>
+  </si>
+  <si>
+    <t>msPractitioner</t>
+  </si>
+  <si>
+    <t>Practitioner  for the MacthSync patient needing transplant</t>
+  </si>
+  <si>
+    <t>Practitioner for the MatchSync patient.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/nmdp-practitioner}
+</t>
+  </si>
+  <si>
+    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
+  </si>
+  <si>
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msPractitioner.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:msOrgTransplantCenter</t>
@@ -2744,7 +2881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN417"/>
+  <dimension ref="A1:AN449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17329,10 +17466,10 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>85</v>
@@ -17347,10 +17484,10 @@
         <v>248</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>268</v>
+        <v>442</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>269</v>
+        <v>443</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17430,7 +17567,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>273</v>
@@ -17542,7 +17679,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>274</v>
@@ -17656,7 +17793,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>275</v>
@@ -17772,7 +17909,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>276</v>
@@ -17884,7 +18021,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>279</v>
@@ -17998,7 +18135,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>283</v>
@@ -18021,16 +18158,16 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>284</v>
+        <v>450</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>285</v>
+        <v>451</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>286</v>
+        <v>452</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18093,13 +18230,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>75</v>
+        <v>453</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18110,7 +18247,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>287</v>
@@ -18222,7 +18359,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>291</v>
@@ -18334,7 +18471,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>292</v>
@@ -18448,7 +18585,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>293</v>
@@ -18564,7 +18701,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>294</v>
@@ -18678,7 +18815,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>300</v>
@@ -18792,7 +18929,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>305</v>
@@ -18904,7 +19041,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>309</v>
@@ -19016,7 +19153,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>310</v>
@@ -19130,7 +19267,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>311</v>
@@ -19246,7 +19383,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>312</v>
@@ -19358,7 +19495,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>317</v>
@@ -19472,7 +19609,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>321</v>
@@ -19584,7 +19721,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>324</v>
@@ -19696,7 +19833,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>326</v>
@@ -19808,7 +19945,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>329</v>
@@ -19920,7 +20057,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>332</v>
@@ -20032,7 +20169,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>336</v>
@@ -20144,7 +20281,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>337</v>
@@ -20258,7 +20395,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>338</v>
@@ -20374,7 +20511,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>339</v>
@@ -20486,7 +20623,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>342</v>
@@ -20598,7 +20735,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>345</v>
@@ -20712,7 +20849,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>349</v>
@@ -20826,7 +20963,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>353</v>
@@ -20940,13 +21077,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -20956,7 +21093,7 @@
         <v>76</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>85</v>
@@ -20971,10 +21108,10 @@
         <v>248</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21054,7 +21191,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>273</v>
@@ -21166,7 +21303,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>274</v>
@@ -21280,7 +21417,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>275</v>
@@ -21396,7 +21533,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>276</v>
@@ -21508,7 +21645,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>279</v>
@@ -21622,7 +21759,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>283</v>
@@ -21648,13 +21785,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21717,13 +21854,13 @@
         <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>485</v>
+        <v>371</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -21734,7 +21871,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>287</v>
@@ -21846,7 +21983,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>291</v>
@@ -21958,7 +22095,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>292</v>
@@ -22072,7 +22209,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>293</v>
@@ -22188,7 +22325,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>294</v>
@@ -22302,7 +22439,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>300</v>
@@ -22416,7 +22553,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>305</v>
@@ -22528,7 +22665,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>309</v>
@@ -22640,7 +22777,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>310</v>
@@ -22754,7 +22891,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>311</v>
@@ -22870,7 +23007,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>312</v>
@@ -22982,7 +23119,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>317</v>
@@ -23096,7 +23233,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>321</v>
@@ -23208,7 +23345,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>324</v>
@@ -23320,7 +23457,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>326</v>
@@ -23432,7 +23569,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>329</v>
@@ -23544,7 +23681,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>332</v>
@@ -23656,7 +23793,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>336</v>
@@ -23768,7 +23905,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>337</v>
@@ -23882,7 +24019,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>338</v>
@@ -23998,7 +24135,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>339</v>
@@ -24110,7 +24247,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>342</v>
@@ -24222,7 +24359,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>345</v>
@@ -24336,7 +24473,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>349</v>
@@ -24450,7 +24587,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>353</v>
@@ -24564,13 +24701,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -24595,10 +24732,10 @@
         <v>248</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -24678,7 +24815,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>273</v>
@@ -24790,7 +24927,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>274</v>
@@ -24904,7 +25041,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>275</v>
@@ -25020,7 +25157,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>276</v>
@@ -25132,7 +25269,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>279</v>
@@ -25246,14 +25383,14 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>523</v>
+        <v>75</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
@@ -25272,17 +25409,15 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
         <v>75</v>
@@ -25343,13 +25478,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25360,7 +25495,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>287</v>
@@ -25472,7 +25607,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>291</v>
@@ -25584,7 +25719,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>292</v>
@@ -25698,7 +25833,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>293</v>
@@ -25814,7 +25949,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>294</v>
@@ -25928,7 +26063,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>300</v>
@@ -26042,7 +26177,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>305</v>
@@ -26154,7 +26289,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>309</v>
@@ -26266,7 +26401,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>310</v>
@@ -26380,7 +26515,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>311</v>
@@ -26496,7 +26631,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>312</v>
@@ -26608,7 +26743,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>317</v>
@@ -26722,7 +26857,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>321</v>
@@ -26834,7 +26969,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>324</v>
@@ -26946,7 +27081,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>326</v>
@@ -27058,7 +27193,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>329</v>
@@ -27170,7 +27305,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>332</v>
@@ -27282,7 +27417,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>336</v>
@@ -27394,7 +27529,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>337</v>
@@ -27508,7 +27643,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>338</v>
@@ -27624,7 +27759,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>339</v>
@@ -27736,7 +27871,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>342</v>
@@ -27848,7 +27983,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>345</v>
@@ -27962,7 +28097,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>349</v>
@@ -28076,7 +28211,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>353</v>
@@ -28190,13 +28325,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28221,10 +28356,10 @@
         <v>248</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28304,7 +28439,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>273</v>
@@ -28416,7 +28551,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>274</v>
@@ -28530,7 +28665,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>275</v>
@@ -28646,7 +28781,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>276</v>
@@ -28672,7 +28807,7 @@
         <v>85</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L229" t="s" s="2">
         <v>277</v>
@@ -28758,7 +28893,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>279</v>
@@ -28872,14 +29007,14 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
@@ -28898,16 +29033,16 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -28969,13 +29104,13 @@
         <v>75</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>75</v>
@@ -28986,7 +29121,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>287</v>
@@ -29098,7 +29233,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>291</v>
@@ -29210,7 +29345,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>292</v>
@@ -29324,7 +29459,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>293</v>
@@ -29440,7 +29575,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>294</v>
@@ -29554,7 +29689,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>300</v>
@@ -29668,7 +29803,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>305</v>
@@ -29780,7 +29915,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>309</v>
@@ -29892,7 +30027,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>310</v>
@@ -30006,7 +30141,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>311</v>
@@ -30122,7 +30257,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>312</v>
@@ -30234,7 +30369,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>317</v>
@@ -30348,7 +30483,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>321</v>
@@ -30460,7 +30595,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>324</v>
@@ -30572,7 +30707,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>326</v>
@@ -30684,7 +30819,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>329</v>
@@ -30796,7 +30931,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>332</v>
@@ -30908,7 +31043,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>336</v>
@@ -31020,7 +31155,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>337</v>
@@ -31134,7 +31269,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>338</v>
@@ -31250,7 +31385,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>339</v>
@@ -31362,7 +31497,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>342</v>
@@ -31474,7 +31609,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>345</v>
@@ -31588,7 +31723,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>349</v>
@@ -31702,7 +31837,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>353</v>
@@ -31816,13 +31951,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>75</v>
@@ -31847,10 +31982,10 @@
         <v>248</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -31930,7 +32065,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>273</v>
@@ -32042,7 +32177,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>274</v>
@@ -32156,7 +32291,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>275</v>
@@ -32272,7 +32407,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>276</v>
@@ -32384,7 +32519,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>279</v>
@@ -32498,14 +32633,14 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32524,16 +32659,16 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -32595,13 +32730,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -32612,7 +32747,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>287</v>
@@ -32724,7 +32859,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>291</v>
@@ -32836,7 +32971,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>292</v>
@@ -32950,7 +33085,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>293</v>
@@ -33066,7 +33201,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>294</v>
@@ -33180,7 +33315,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>300</v>
@@ -33294,7 +33429,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>305</v>
@@ -33406,7 +33541,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>309</v>
@@ -33518,7 +33653,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>310</v>
@@ -33632,7 +33767,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>311</v>
@@ -33748,7 +33883,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>312</v>
@@ -33860,7 +33995,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>317</v>
@@ -33974,7 +34109,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>321</v>
@@ -34086,7 +34221,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>324</v>
@@ -34198,7 +34333,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>326</v>
@@ -34310,7 +34445,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>329</v>
@@ -34422,7 +34557,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>332</v>
@@ -34534,7 +34669,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>336</v>
@@ -34646,7 +34781,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>337</v>
@@ -34760,7 +34895,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>338</v>
@@ -34876,7 +35011,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>339</v>
@@ -34988,7 +35123,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>342</v>
@@ -35100,7 +35235,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>345</v>
@@ -35214,7 +35349,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>349</v>
@@ -35328,7 +35463,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>353</v>
@@ -35442,13 +35577,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>75</v>
@@ -35473,10 +35608,10 @@
         <v>248</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -35556,7 +35691,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>273</v>
@@ -35668,7 +35803,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>274</v>
@@ -35782,7 +35917,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>275</v>
@@ -35898,7 +36033,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>276</v>
@@ -36010,7 +36145,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>279</v>
@@ -36124,14 +36259,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36150,16 +36285,16 @@
         <v>75</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36221,13 +36356,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -36238,7 +36373,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>287</v>
@@ -36350,7 +36485,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>291</v>
@@ -36462,7 +36597,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>292</v>
@@ -36576,7 +36711,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>293</v>
@@ -36692,7 +36827,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>294</v>
@@ -36806,7 +36941,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>300</v>
@@ -36920,7 +37055,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>305</v>
@@ -37032,7 +37167,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>309</v>
@@ -37144,7 +37279,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>310</v>
@@ -37258,7 +37393,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>311</v>
@@ -37374,7 +37509,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>312</v>
@@ -37486,7 +37621,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>317</v>
@@ -37600,7 +37735,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>321</v>
@@ -37712,7 +37847,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>324</v>
@@ -37824,7 +37959,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>326</v>
@@ -37936,7 +38071,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>329</v>
@@ -38048,7 +38183,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>332</v>
@@ -38160,7 +38295,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>336</v>
@@ -38272,7 +38407,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>337</v>
@@ -38386,7 +38521,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>338</v>
@@ -38502,7 +38637,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>339</v>
@@ -38614,7 +38749,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>342</v>
@@ -38726,7 +38861,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>345</v>
@@ -38840,7 +38975,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>349</v>
@@ -38954,7 +39089,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>353</v>
@@ -39068,13 +39203,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>75</v>
@@ -39099,10 +39234,10 @@
         <v>248</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -39182,7 +39317,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>273</v>
@@ -39294,7 +39429,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>274</v>
@@ -39408,7 +39543,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>275</v>
@@ -39524,7 +39659,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>276</v>
@@ -39636,7 +39771,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>279</v>
@@ -39750,14 +39885,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -39776,16 +39911,16 @@
         <v>75</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>674</v>
+        <v>570</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>675</v>
+        <v>571</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -39847,13 +39982,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -39864,7 +39999,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>287</v>
@@ -39976,7 +40111,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>291</v>
@@ -40088,7 +40223,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>292</v>
@@ -40202,7 +40337,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>293</v>
@@ -40318,7 +40453,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>294</v>
@@ -40432,7 +40567,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>300</v>
@@ -40546,7 +40681,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>305</v>
@@ -40658,7 +40793,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>309</v>
@@ -40770,7 +40905,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>310</v>
@@ -40884,7 +41019,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>311</v>
@@ -41000,7 +41135,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>312</v>
@@ -41112,7 +41247,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>317</v>
@@ -41226,7 +41361,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>321</v>
@@ -41338,7 +41473,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>324</v>
@@ -41450,7 +41585,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>326</v>
@@ -41562,7 +41697,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>329</v>
@@ -41674,7 +41809,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>332</v>
@@ -41786,7 +41921,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>336</v>
@@ -41898,7 +42033,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>337</v>
@@ -42012,7 +42147,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>338</v>
@@ -42128,7 +42263,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>339</v>
@@ -42240,7 +42375,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>342</v>
@@ -42352,7 +42487,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>345</v>
@@ -42466,7 +42601,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>349</v>
@@ -42580,7 +42715,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>353</v>
@@ -42694,13 +42829,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>75</v>
@@ -42725,10 +42860,10 @@
         <v>248</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -42808,7 +42943,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>273</v>
@@ -42920,7 +43055,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>274</v>
@@ -43034,7 +43169,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>275</v>
@@ -43150,7 +43285,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>276</v>
@@ -43262,7 +43397,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>279</v>
@@ -43376,14 +43511,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43402,16 +43537,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43473,13 +43608,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43490,7 +43625,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>287</v>
@@ -43602,7 +43737,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>291</v>
@@ -43714,7 +43849,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>292</v>
@@ -43828,7 +43963,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>293</v>
@@ -43944,7 +44079,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>294</v>
@@ -44058,7 +44193,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>300</v>
@@ -44172,7 +44307,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>305</v>
@@ -44284,7 +44419,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>309</v>
@@ -44396,7 +44531,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>310</v>
@@ -44510,7 +44645,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>311</v>
@@ -44626,7 +44761,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>312</v>
@@ -44738,7 +44873,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>317</v>
@@ -44852,7 +44987,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>321</v>
@@ -44964,7 +45099,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>324</v>
@@ -45076,7 +45211,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>326</v>
@@ -45188,7 +45323,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>329</v>
@@ -45300,7 +45435,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>332</v>
@@ -45412,7 +45547,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>336</v>
@@ -45524,7 +45659,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>337</v>
@@ -45638,7 +45773,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>338</v>
@@ -45754,7 +45889,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>339</v>
@@ -45866,7 +46001,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>342</v>
@@ -45978,7 +46113,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>345</v>
@@ -46092,7 +46227,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>349</v>
@@ -46206,7 +46341,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>353</v>
@@ -46320,13 +46455,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46351,10 +46486,10 @@
         <v>248</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -46434,7 +46569,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>273</v>
@@ -46546,7 +46681,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>274</v>
@@ -46660,7 +46795,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>275</v>
@@ -46776,7 +46911,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>276</v>
@@ -46888,7 +47023,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>279</v>
@@ -47002,14 +47137,14 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
-        <v>75</v>
+        <v>568</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" t="s" s="2">
@@ -47028,15 +47163,17 @@
         <v>75</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="N391" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O391" s="2"/>
       <c r="P391" t="s" s="2">
         <v>75</v>
@@ -47097,13 +47234,13 @@
         <v>75</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>371</v>
+        <v>721</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>75</v>
+        <v>574</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>753</v>
+        <v>575</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47114,7 +47251,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>287</v>
@@ -47226,7 +47363,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>291</v>
@@ -47338,7 +47475,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>292</v>
@@ -47452,7 +47589,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>293</v>
@@ -47568,7 +47705,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>294</v>
@@ -47682,7 +47819,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>300</v>
@@ -47796,7 +47933,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>305</v>
@@ -47908,7 +48045,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>309</v>
@@ -48020,7 +48157,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>310</v>
@@ -48134,7 +48271,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>311</v>
@@ -48250,7 +48387,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>312</v>
@@ -48362,7 +48499,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>317</v>
@@ -48476,7 +48613,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>321</v>
@@ -48588,7 +48725,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>324</v>
@@ -48700,7 +48837,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>326</v>
@@ -48812,7 +48949,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>329</v>
@@ -48924,7 +49061,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>332</v>
@@ -49036,7 +49173,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>336</v>
@@ -49148,7 +49285,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>337</v>
@@ -49262,7 +49399,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>338</v>
@@ -49378,7 +49515,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>339</v>
@@ -49490,7 +49627,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>342</v>
@@ -49602,7 +49739,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>345</v>
@@ -49716,7 +49853,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>349</v>
@@ -49830,7 +49967,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>353</v>
@@ -49944,12 +50081,14 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="C417" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C417" t="s" s="2">
+        <v>786</v>
+      </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
       </c>
@@ -49961,7 +50100,7 @@
         <v>84</v>
       </c>
       <c r="H417" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I417" t="s" s="2">
         <v>75</v>
@@ -49970,20 +50109,16 @@
         <v>85</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>780</v>
+        <v>248</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="N417" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O417" t="s" s="2">
-        <v>784</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="N417" s="2"/>
+      <c r="O417" s="2"/>
       <c r="P417" t="s" s="2">
         <v>75</v>
       </c>
@@ -50031,35 +50166,3661 @@
         <v>75</v>
       </c>
       <c r="AF417" t="s" s="2">
-        <v>779</v>
+        <v>266</v>
       </c>
       <c r="AG417" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH417" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI417" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ417" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK417" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL417" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM417" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN417" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" hidden="true">
+      <c r="A418" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B418" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C418" s="2"/>
+      <c r="D418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E418" s="2"/>
+      <c r="F418" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G418" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K418" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L418" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M418" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N418" s="2"/>
+      <c r="O418" s="2"/>
+      <c r="P418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q418" s="2"/>
+      <c r="R418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF418" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG418" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH418" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL418" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN418" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="419" hidden="true">
+      <c r="A419" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B419" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C419" s="2"/>
+      <c r="D419" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E419" s="2"/>
+      <c r="F419" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K419" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L419" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M419" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N419" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O419" s="2"/>
+      <c r="P419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q419" s="2"/>
+      <c r="R419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF419" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG419" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ419" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL419" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN419" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" hidden="true">
+      <c r="A420" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="B420" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C420" s="2"/>
+      <c r="D420" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E420" s="2"/>
+      <c r="F420" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I420" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J420" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K420" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L420" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M420" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N420" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O420" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q420" s="2"/>
+      <c r="R420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF420" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG420" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ420" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL420" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN420" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="421" hidden="true">
+      <c r="A421" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B421" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C421" s="2"/>
+      <c r="D421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E421" s="2"/>
+      <c r="F421" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J421" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L421" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M421" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N421" s="2"/>
+      <c r="O421" s="2"/>
+      <c r="P421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q421" s="2"/>
+      <c r="R421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF421" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG421" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ421" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AK417" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL417" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM417" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN417" t="s" s="2">
+      <c r="AK421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN421" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="422" hidden="true">
+      <c r="A422" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="B422" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C422" s="2"/>
+      <c r="D422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E422" s="2"/>
+      <c r="F422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G422" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J422" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K422" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L422" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M422" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N422" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O422" s="2"/>
+      <c r="P422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q422" s="2"/>
+      <c r="R422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF422" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH422" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ422" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN422" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="423" hidden="true">
+      <c r="A423" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="B423" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C423" s="2"/>
+      <c r="D423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E423" s="2"/>
+      <c r="F423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G423" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K423" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L423" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M423" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="N423" s="2"/>
+      <c r="O423" s="2"/>
+      <c r="P423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q423" s="2"/>
+      <c r="R423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF423" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH423" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ423" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL423" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="AM423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN423" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="424" hidden="true">
+      <c r="A424" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="B424" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C424" s="2"/>
+      <c r="D424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E424" s="2"/>
+      <c r="F424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G424" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J424" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K424" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L424" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M424" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N424" s="2"/>
+      <c r="O424" s="2"/>
+      <c r="P424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q424" s="2"/>
+      <c r="R424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF424" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH424" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI424" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AJ424" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN424" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="425" hidden="true">
+      <c r="A425" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="B425" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C425" s="2"/>
+      <c r="D425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E425" s="2"/>
+      <c r="F425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G425" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K425" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L425" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M425" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N425" s="2"/>
+      <c r="O425" s="2"/>
+      <c r="P425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q425" s="2"/>
+      <c r="R425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF425" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH425" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL425" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM425" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN425" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="426" hidden="true">
+      <c r="A426" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B426" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C426" s="2"/>
+      <c r="D426" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E426" s="2"/>
+      <c r="F426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K426" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L426" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M426" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N426" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O426" s="2"/>
+      <c r="P426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q426" s="2"/>
+      <c r="R426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF426" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ426" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL426" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM426" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN426" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="427" hidden="true">
+      <c r="A427" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="B427" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C427" s="2"/>
+      <c r="D427" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E427" s="2"/>
+      <c r="F427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I427" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J427" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K427" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L427" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M427" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N427" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O427" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q427" s="2"/>
+      <c r="R427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF427" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ427" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL427" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN427" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="428" hidden="true">
+      <c r="A428" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="B428" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C428" s="2"/>
+      <c r="D428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E428" s="2"/>
+      <c r="F428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G428" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J428" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K428" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L428" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M428" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N428" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O428" s="2"/>
+      <c r="P428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q428" s="2"/>
+      <c r="R428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X428" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y428" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z428" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AA428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF428" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH428" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ428" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN428" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="429" hidden="true">
+      <c r="A429" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="B429" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C429" s="2"/>
+      <c r="D429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E429" s="2"/>
+      <c r="F429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G429" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J429" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K429" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L429" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M429" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N429" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O429" s="2"/>
+      <c r="P429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q429" s="2"/>
+      <c r="R429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF429" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH429" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ429" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN429" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="430" hidden="true">
+      <c r="A430" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="B430" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C430" s="2"/>
+      <c r="D430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E430" s="2"/>
+      <c r="F430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G430" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J430" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K430" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L430" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M430" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N430" s="2"/>
+      <c r="O430" s="2"/>
+      <c r="P430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q430" s="2"/>
+      <c r="R430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF430" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH430" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI430" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AJ430" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN430" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="431" hidden="true">
+      <c r="A431" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="B431" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C431" s="2"/>
+      <c r="D431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E431" s="2"/>
+      <c r="F431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G431" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K431" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L431" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M431" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N431" s="2"/>
+      <c r="O431" s="2"/>
+      <c r="P431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q431" s="2"/>
+      <c r="R431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF431" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH431" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL431" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN431" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="432" hidden="true">
+      <c r="A432" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="B432" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C432" s="2"/>
+      <c r="D432" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E432" s="2"/>
+      <c r="F432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K432" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L432" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M432" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N432" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O432" s="2"/>
+      <c r="P432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q432" s="2"/>
+      <c r="R432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF432" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ432" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL432" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN432" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="433" hidden="true">
+      <c r="A433" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="B433" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C433" s="2"/>
+      <c r="D433" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E433" s="2"/>
+      <c r="F433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I433" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J433" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K433" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L433" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M433" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N433" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O433" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q433" s="2"/>
+      <c r="R433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF433" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ433" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL433" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN433" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="434" hidden="true">
+      <c r="A434" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="B434" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C434" s="2"/>
+      <c r="D434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E434" s="2"/>
+      <c r="F434" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G434" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J434" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K434" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L434" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M434" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N434" s="2"/>
+      <c r="O434" s="2"/>
+      <c r="P434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q434" s="2"/>
+      <c r="R434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X434" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y434" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z434" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF434" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG434" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH434" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ434" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM434" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN434" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="435" hidden="true">
+      <c r="A435" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="B435" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C435" s="2"/>
+      <c r="D435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E435" s="2"/>
+      <c r="F435" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G435" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J435" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K435" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L435" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M435" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N435" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O435" s="2"/>
+      <c r="P435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q435" s="2"/>
+      <c r="R435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF435" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG435" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH435" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ435" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN435" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" hidden="true">
+      <c r="A436" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="B436" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C436" s="2"/>
+      <c r="D436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E436" s="2"/>
+      <c r="F436" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G436" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J436" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K436" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L436" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M436" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N436" s="2"/>
+      <c r="O436" s="2"/>
+      <c r="P436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q436" s="2"/>
+      <c r="R436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF436" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG436" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH436" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ436" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN436" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="437" hidden="true">
+      <c r="A437" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="B437" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C437" s="2"/>
+      <c r="D437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E437" s="2"/>
+      <c r="F437" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G437" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J437" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K437" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L437" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N437" s="2"/>
+      <c r="O437" s="2"/>
+      <c r="P437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q437" s="2"/>
+      <c r="R437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF437" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG437" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH437" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ437" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN437" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="438" hidden="true">
+      <c r="A438" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="B438" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C438" s="2"/>
+      <c r="D438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E438" s="2"/>
+      <c r="F438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G438" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J438" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K438" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L438" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N438" s="2"/>
+      <c r="O438" s="2"/>
+      <c r="P438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q438" s="2"/>
+      <c r="R438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF438" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH438" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ438" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN438" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="439" hidden="true">
+      <c r="A439" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="B439" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C439" s="2"/>
+      <c r="D439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E439" s="2"/>
+      <c r="F439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G439" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J439" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K439" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L439" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N439" s="2"/>
+      <c r="O439" s="2"/>
+      <c r="P439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q439" s="2"/>
+      <c r="R439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF439" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH439" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ439" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN439" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="440" hidden="true">
+      <c r="A440" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="B440" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C440" s="2"/>
+      <c r="D440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E440" s="2"/>
+      <c r="F440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G440" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J440" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K440" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L440" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M440" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N440" s="2"/>
+      <c r="O440" s="2"/>
+      <c r="P440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q440" s="2"/>
+      <c r="R440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF440" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH440" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI440" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ440" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN440" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="441" hidden="true">
+      <c r="A441" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="B441" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C441" s="2"/>
+      <c r="D441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E441" s="2"/>
+      <c r="F441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G441" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K441" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L441" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N441" s="2"/>
+      <c r="O441" s="2"/>
+      <c r="P441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q441" s="2"/>
+      <c r="R441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF441" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH441" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL441" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN441" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="442" hidden="true">
+      <c r="A442" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="B442" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C442" s="2"/>
+      <c r="D442" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E442" s="2"/>
+      <c r="F442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K442" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L442" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M442" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O442" s="2"/>
+      <c r="P442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q442" s="2"/>
+      <c r="R442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF442" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ442" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL442" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN442" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="443" hidden="true">
+      <c r="A443" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="B443" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C443" s="2"/>
+      <c r="D443" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E443" s="2"/>
+      <c r="F443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I443" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J443" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K443" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L443" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N443" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O443" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q443" s="2"/>
+      <c r="R443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF443" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ443" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL443" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN443" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="444" hidden="true">
+      <c r="A444" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="B444" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C444" s="2"/>
+      <c r="D444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E444" s="2"/>
+      <c r="F444" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G444" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J444" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K444" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L444" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M444" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N444" s="2"/>
+      <c r="O444" s="2"/>
+      <c r="P444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q444" s="2"/>
+      <c r="R444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF444" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG444" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH444" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ444" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN444" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="445" hidden="true">
+      <c r="A445" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="B445" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C445" s="2"/>
+      <c r="D445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E445" s="2"/>
+      <c r="F445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G445" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J445" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K445" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L445" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M445" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N445" s="2"/>
+      <c r="O445" s="2"/>
+      <c r="P445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q445" s="2"/>
+      <c r="R445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF445" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH445" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ445" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN445" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="446" hidden="true">
+      <c r="A446" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="B446" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C446" s="2"/>
+      <c r="D446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E446" s="2"/>
+      <c r="F446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G446" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J446" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K446" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L446" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M446" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N446" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O446" s="2"/>
+      <c r="P446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q446" s="2"/>
+      <c r="R446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF446" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH446" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ446" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN446" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="447" hidden="true">
+      <c r="A447" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="B447" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C447" s="2"/>
+      <c r="D447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E447" s="2"/>
+      <c r="F447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G447" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J447" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K447" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L447" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M447" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N447" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O447" s="2"/>
+      <c r="P447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q447" s="2"/>
+      <c r="R447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF447" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH447" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ447" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN447" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="448" hidden="true">
+      <c r="A448" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="B448" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C448" s="2"/>
+      <c r="D448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E448" s="2"/>
+      <c r="F448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G448" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J448" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K448" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L448" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M448" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N448" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O448" s="2"/>
+      <c r="P448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q448" s="2"/>
+      <c r="R448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF448" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH448" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN448" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="449" hidden="true">
+      <c r="A449" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="B449" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="C449" s="2"/>
+      <c r="D449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E449" s="2"/>
+      <c r="F449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G449" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J449" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K449" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="L449" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="O449" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="P449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q449" s="2"/>
+      <c r="R449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF449" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AG449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH449" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ449" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN449" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN417">
+  <autoFilter ref="A1:AN449">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -50069,7 +53830,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI416">
+  <conditionalFormatting sqref="A2:AI448">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-ms-bundle.xlsx
+++ b/docs/StructureDefinition-ms-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
